--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>009994</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>嘉实创新先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>40.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6546</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>83.84</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商医药医疗行业股票</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>070017</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>嘉实量化阿尔法混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>009995</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>嘉实创新先锋混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>070017</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实量化阿尔法混合</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -978,15 +1158,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>47.59</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009994</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合A</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.42</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009995</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合C</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.42</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>004806</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>长信先机两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004806</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1268</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2835,4 +2836,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.32</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.71</v>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.49</v>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2923,13 +3010,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3205,7 +3206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,17 +3217,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.68</v>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3252,14 +3295,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.32</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="4">
@@ -3268,14 +3401,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.71</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5">
@@ -3284,14 +3417,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>6.49</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="6">
@@ -3300,13 +3433,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.68</v>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.32</v>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3417,14 +3504,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.71</v>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3433,14 +3542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.49</v>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3449,13 +3580,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002390-信邦制药.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,813 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7647</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005303</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0009</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8568</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009994</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>40.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8193</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6546</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1764</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005304</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008107</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商医药医疗行业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>070017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实量化阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1004</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009995</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005520</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004806</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1273,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1334,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8562</t>
+          <t>0.6539</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1362,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.16</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>87.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0385</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1400,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.83</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>87.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9071</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1438,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>009411</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>中银科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8816</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1476,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>163809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>中银蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8378</t>
+          <t>0.0782</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1514,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>004448</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>博时汇智回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>67.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6981</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1552,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1590,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1628,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1666,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>014133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>工银中证500六个月持有指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1704,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004806</t>
+          <t>014134</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
+          <t>工银中证500六个月持有指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1742,74 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1844,7 +1138,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1874,36 +1168,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>009411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>中银科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.19</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1078</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1912,568 +1206,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>163809</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>中银蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>79.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0782</t>
+          <t>0.0931</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7266</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>46.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4743</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>200006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城消费增值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4199</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519171</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2700</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005304</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1681</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1483</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1054</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002514</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商丰益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0995</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002515</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商丰益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>35.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.92</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>81.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004806</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>62.37</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +1270,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2548,26 +1310,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.18</t>
+          <t>49.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>74.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4520</t>
+          <t>1.3697</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2576,36 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005450</t>
+          <t>010969</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏稳盛灵活配置混合</t>
+          <t>华夏安阳6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>35.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.05</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2182</t>
+          <t>1.1011</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2614,36 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007207</t>
+          <t>200006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏常阳三年定期开放混合</t>
+          <t>长城消费增值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.52</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>90.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1268</t>
+          <t>0.4079</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2652,36 +1414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010969</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏安阳6个月持有期混合A</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8387</t>
+          <t>0.3958</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2690,36 +1452,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>200006</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城消费增值混合</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3838</t>
+          <t>0.2024</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2728,36 +1490,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009898</t>
+          <t>010970</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银医药健康股票</t>
+          <t>华夏安阳6个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.73</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1826</t>
+          <t>0.1014</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2766,32 +1528,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010970</t>
+          <t>009411</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏安阳6个月持有期混合C</t>
+          <t>中银科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1111</t>
+          <t>0.1004</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2804,36 +1566,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>98.54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +1630,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2908,26 +1670,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.99</t>
+          <t>54.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.09</t>
+          <t>84.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3697</t>
+          <t>1.4520</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2936,36 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010969</t>
+          <t>005450</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏安阳6个月持有期混合A</t>
+          <t>华夏稳盛灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.52</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>88.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1011</t>
+          <t>1.2182</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2974,36 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200006</t>
+          <t>007207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城消费增值混合</t>
+          <t>华夏常阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>42.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>72.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4079</t>
+          <t>1.1268</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3012,36 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>010969</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>华夏安阳6个月持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.87</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3958</t>
+          <t>0.8387</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3050,36 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>200006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>长城消费增值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.87</t>
+          <t>85.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2024</t>
+          <t>0.3838</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3088,36 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010970</t>
+          <t>009898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏安阳6个月持有期混合C</t>
+          <t>民生加银医药健康股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>83.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1014</t>
+          <t>0.1826</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3126,32 +1888,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009411</t>
+          <t>010970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银科技创新一年定期开放混合</t>
+          <t>华夏安阳6个月持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1004</t>
+          <t>0.1111</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3164,36 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.54</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3228,7 +1990,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3258,36 +2020,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009411</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银科技创新一年定期开放混合</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>18.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1142</t>
+          <t>1.1078</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3296,36 +2058,568 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163809</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银蓝筹精选灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>1.0782</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3360,7 +2654,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3400,26 +2694,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6539</t>
+          <t>1.8562</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3428,36 +2722,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.83</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1025</t>
+          <t>1.0385</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3466,36 +2760,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.83</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1025</t>
+          <t>0.9071</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3504,36 +2798,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009411</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银科技创新一年定期开放混合</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.8816</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3542,36 +2836,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>163809</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银蓝筹精选灵活配置混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0782</t>
+          <t>0.8378</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3580,36 +2874,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004448</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时汇智回报灵活配置混合</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67.09</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.6981</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3618,36 +2912,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3656,36 +2950,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -3694,36 +2988,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3732,36 +3026,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014133</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强A</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3770,36 +3064,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014134</t>
+          <t>004806</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强C</t>
+          <t>长信先机两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>72.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -3808,36 +3102,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3851,144 +3183,812 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6546</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.07</v>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>